--- a/white_v6.xlsx
+++ b/white_v6.xlsx
@@ -10,14 +10,14 @@
     <sheet name="1.Fund" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.Fund'!$A$1:$Q$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.Fund'!$A$1:$Q$169</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="577">
   <si>
     <t>Ref</t>
   </si>
@@ -907,13 +907,25 @@
     <t>F00000ZQWK</t>
   </si>
   <si>
+    <t>First State Asian Bridge (Dist.)</t>
+  </si>
+  <si>
+    <t>首域亚洲桥梁基金</t>
+  </si>
+  <si>
+    <t>First State</t>
+  </si>
+  <si>
+    <t>HK0000012440</t>
+  </si>
+  <si>
+    <t>HK0000554565</t>
+  </si>
+  <si>
     <t>First State China Growth</t>
   </si>
   <si>
     <t>首域中国成长基金</t>
-  </si>
-  <si>
-    <t>First State</t>
   </si>
   <si>
     <t>IE0008368742</t>
@@ -1743,10 +1755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1779,14 +1791,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1794,23 +1806,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1824,8 +1843,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,28 +1865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1870,23 +1874,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1907,18 +1902,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1934,7 +1946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1949,25 +1961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,79 +1979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,7 +2009,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,49 +2123,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,28 +2155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2174,6 +2175,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2205,15 +2221,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2234,16 +2241,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2252,143 +2270,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2418,9 +2436,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2772,11 +2793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q167"/>
+  <sheetPr/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2794,9 +2819,8 @@
     <col min="11" max="11" width="14.45" customWidth="1"/>
     <col min="12" max="12" width="12.8166666666667" customWidth="1"/>
     <col min="13" max="13" width="7.63333333333333" customWidth="1"/>
-    <col min="14" max="15" width="14.725" customWidth="1"/>
-    <col min="16" max="16" width="21.625" customWidth="1"/>
-    <col min="17" max="17" width="29.75" customWidth="1"/>
+    <col min="14" max="16" width="14.725" customWidth="1"/>
+    <col min="17" max="17" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6527,336 +6551,336 @@
       <c r="P74"/>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" s="1" customFormat="1" spans="1:17">
       <c r="A75" s="9">
+        <v>82</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L75" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:17">
+      <c r="A76" s="9">
+        <v>83</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="9">
         <v>84</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="B77" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="E77" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J77" t="s">
         <v>23</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K77" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="15" t="s">
+      <c r="L77" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" t="s">
-        <v>300</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="M77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>304</v>
+      </c>
+      <c r="O77" t="s">
         <v>28</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P77" t="s">
         <v>29</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q77" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="9">
+    <row r="78" spans="1:17">
+      <c r="A78" s="9">
         <v>85</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="B78" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="E78" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J78" t="s">
         <v>23</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K78" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="15" t="s">
+      <c r="L78" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" t="s">
-        <v>304</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="M78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" t="s">
+        <v>308</v>
+      </c>
+      <c r="O78" t="s">
         <v>28</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P78" t="s">
         <v>29</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:17">
-      <c r="A77" s="10">
+    <row r="79" s="2" customFormat="1" spans="1:17">
+      <c r="A79" s="10">
         <v>86</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="11" t="s">
+      <c r="B79" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="11" t="s">
+      <c r="H79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K79" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L77" s="16" t="s">
+      <c r="L79" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M77" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="2" t="s">
+      <c r="M79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:17">
+      <c r="A80" s="10">
+        <v>87</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:17">
-      <c r="A78" s="10">
-        <v>87</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L78" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M78" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="9">
-        <v>88</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" t="s">
-        <v>315</v>
-      </c>
-      <c r="O79" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="9">
-        <v>89</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H80" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N80" t="s">
-        <v>317</v>
-      </c>
-      <c r="O80" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>318</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>33</v>
@@ -6891,25 +6915,25 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
         <v>21</v>
@@ -6930,7 +6954,7 @@
         <v>26</v>
       </c>
       <c r="N82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O82" t="s">
         <v>65</v>
@@ -6941,25 +6965,25 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
@@ -6980,7 +7004,7 @@
         <v>26</v>
       </c>
       <c r="N83" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O83" t="s">
         <v>65</v>
@@ -6991,25 +7015,25 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
@@ -7041,25 +7065,25 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>328</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H85" t="s">
         <v>21</v>
@@ -7091,19 +7115,19 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C86" t="s">
-        <v>331</v>
-      </c>
-      <c r="D86" t="s">
-        <v>307</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>85</v>
@@ -7115,48 +7139,45 @@
         <v>21</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N86" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O86" t="s">
-        <v>44</v>
-      </c>
-      <c r="P86" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q86" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C87" t="s">
-        <v>331</v>
-      </c>
-      <c r="D87" t="s">
-        <v>307</v>
+        <v>324</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>73</v>
@@ -7168,54 +7189,51 @@
         <v>21</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M87" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N87" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O87" t="s">
-        <v>44</v>
-      </c>
-      <c r="P87" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q87" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" t="s">
+        <v>311</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D88" t="s">
-        <v>338</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="F88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H88" t="s">
         <v>21</v>
@@ -7229,46 +7247,46 @@
       <c r="K88" t="s">
         <v>24</v>
       </c>
-      <c r="L88" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" t="s">
+      <c r="L88" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M88" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N88" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O88" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="Q88" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="C89" t="s">
+        <v>335</v>
       </c>
       <c r="D89" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
@@ -7282,40 +7300,40 @@
       <c r="K89" t="s">
         <v>24</v>
       </c>
-      <c r="L89" t="s">
-        <v>25</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="L89" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M89" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N89" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="Q89" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D90" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>73</v>
@@ -7342,63 +7360,66 @@
         <v>26</v>
       </c>
       <c r="N90" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O90" t="s">
         <v>28</v>
       </c>
       <c r="P90" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="Q90" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>342</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L91" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M91" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" t="s">
         <v>26</v>
       </c>
       <c r="N91" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O91" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P91" t="s">
+        <v>345</v>
       </c>
       <c r="Q91" t="s">
         <v>36</v>
@@ -7406,72 +7427,75 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="F92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H92" t="s">
         <v>21</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L92" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M92" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" t="s">
         <v>26</v>
       </c>
       <c r="N92" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O92" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P92" t="s">
+        <v>29</v>
       </c>
       <c r="Q92" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>33</v>
@@ -7506,75 +7530,72 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="F94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" t="s">
         <v>358</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" t="s">
-        <v>360</v>
-      </c>
       <c r="O94" t="s">
-        <v>28</v>
-      </c>
-      <c r="P94" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q94" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>350</v>
+        <v>353</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>33</v>
@@ -7583,54 +7604,51 @@
         <v>21</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K95" t="s">
-        <v>24</v>
-      </c>
-      <c r="L95" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M95" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O95" t="s">
-        <v>28</v>
-      </c>
-      <c r="P95" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q95" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>363</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H96" t="s">
         <v>21</v>
@@ -7665,19 +7683,19 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>367</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>52</v>
@@ -7704,7 +7722,7 @@
         <v>26</v>
       </c>
       <c r="N97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O97" t="s">
         <v>28</v>
@@ -7713,24 +7731,24 @@
         <v>29</v>
       </c>
       <c r="Q97" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>62</v>
@@ -7757,7 +7775,7 @@
         <v>26</v>
       </c>
       <c r="N98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O98" t="s">
         <v>28</v>
@@ -7766,30 +7784,30 @@
         <v>29</v>
       </c>
       <c r="Q98" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E99" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H99" t="s">
         <v>21</v>
@@ -7803,14 +7821,14 @@
       <c r="K99" t="s">
         <v>24</v>
       </c>
-      <c r="L99" s="15" t="s">
+      <c r="L99" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M99" s="15" t="s">
+      <c r="M99" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N99" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O99" t="s">
         <v>28</v>
@@ -7824,25 +7842,25 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H100" t="s">
         <v>21</v>
@@ -7856,14 +7874,14 @@
       <c r="K100" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="15" t="s">
+      <c r="L100" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M100" s="15" t="s">
+      <c r="M100" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O100" t="s">
         <v>28</v>
@@ -7877,49 +7895,52 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="F101" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" t="s">
         <v>378</v>
       </c>
-      <c r="D101" t="s">
-        <v>350</v>
-      </c>
-      <c r="E101" t="s">
-        <v>379</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L101" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M101" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" t="s">
-        <v>380</v>
-      </c>
       <c r="O101" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
+        <v>29</v>
       </c>
       <c r="Q101" t="s">
         <v>49</v>
@@ -7927,19 +7948,19 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="9">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D102" t="s">
-        <v>350</v>
-      </c>
-      <c r="E102" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>52</v>
@@ -7951,25 +7972,28 @@
         <v>21</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L102" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M102" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" t="s">
+        <v>24</v>
+      </c>
+      <c r="L102" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O102" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P102" t="s">
+        <v>29</v>
       </c>
       <c r="Q102" t="s">
         <v>49</v>
@@ -7977,25 +8001,25 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D103" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E103" t="s">
         <v>383</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H103" t="s">
         <v>21</v>
@@ -8027,19 +8051,19 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
         <v>385</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>52</v>
@@ -8051,89 +8075,83 @@
         <v>21</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" t="s">
-        <v>24</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M104" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M104" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N104" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O104" t="s">
-        <v>28</v>
-      </c>
-      <c r="P104" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q104" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
+      </c>
+      <c r="D105" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" t="s">
+        <v>387</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H105" t="s">
         <v>21</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M105" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N105" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O105" t="s">
-        <v>28</v>
-      </c>
-      <c r="P105" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q105" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="9">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>389</v>
@@ -8141,11 +8159,11 @@
       <c r="C106" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>394</v>
+      <c r="D106" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>52</v>
@@ -8165,14 +8183,14 @@
       <c r="K106" t="s">
         <v>24</v>
       </c>
-      <c r="L106" s="14" t="s">
+      <c r="L106" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M106" s="14" t="s">
+      <c r="M106" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N106" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O106" t="s">
         <v>28</v>
@@ -8181,30 +8199,30 @@
         <v>29</v>
       </c>
       <c r="Q106" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E107" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="G107" s="4" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
         <v>21</v>
@@ -8239,25 +8257,25 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D108" t="s">
-        <v>350</v>
-      </c>
-      <c r="E108" t="s">
-        <v>400</v>
-      </c>
       <c r="F108" s="4" t="s">
-        <v>392</v>
+        <v>52</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H108" t="s">
         <v>21</v>
@@ -8271,20 +8289,20 @@
       <c r="K108" t="s">
         <v>24</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N108" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O108" t="s">
         <v>28</v>
       </c>
       <c r="P108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q108" t="s">
         <v>30</v>
@@ -8292,25 +8310,25 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D109" t="s">
-        <v>350</v>
-      </c>
-      <c r="E109" t="s">
-        <v>402</v>
-      </c>
-      <c r="F109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>20</v>
+        <v>394</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H109" t="s">
         <v>21</v>
@@ -8331,13 +8349,13 @@
         <v>26</v>
       </c>
       <c r="N109" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O109" t="s">
         <v>28</v>
       </c>
       <c r="P109" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q109" t="s">
         <v>30</v>
@@ -8345,25 +8363,25 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D110" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
         <v>404</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>52</v>
+        <v>396</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
         <v>21</v>
@@ -8377,10 +8395,10 @@
       <c r="K110" t="s">
         <v>24</v>
       </c>
-      <c r="L110" s="14" t="s">
+      <c r="L110" t="s">
         <v>25</v>
       </c>
-      <c r="M110" s="14" t="s">
+      <c r="M110" t="s">
         <v>26</v>
       </c>
       <c r="N110" t="s">
@@ -8398,25 +8416,25 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D111" t="s">
+        <v>354</v>
+      </c>
+      <c r="E111" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D111" t="s">
-        <v>350</v>
-      </c>
-      <c r="E111" t="s">
-        <v>408</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>33</v>
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -8437,7 +8455,7 @@
         <v>26</v>
       </c>
       <c r="N111" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O111" t="s">
         <v>28</v>
@@ -8446,24 +8464,24 @@
         <v>35</v>
       </c>
       <c r="Q111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E112" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>52</v>
@@ -8490,7 +8508,7 @@
         <v>26</v>
       </c>
       <c r="N112" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O112" t="s">
         <v>28</v>
@@ -8499,27 +8517,27 @@
         <v>35</v>
       </c>
       <c r="Q112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" t="s">
+        <v>354</v>
+      </c>
+      <c r="E113" t="s">
         <v>412</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>33</v>
@@ -8528,48 +8546,51 @@
         <v>21</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L113" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M113" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" t="s">
+        <v>24</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N113" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O113" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P113" t="s">
+        <v>35</v>
       </c>
       <c r="Q113" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" t="s">
+        <v>354</v>
+      </c>
+      <c r="E114" t="s">
+        <v>414</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>33</v>
@@ -8578,51 +8599,54 @@
         <v>21</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M114" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" t="s">
+        <v>24</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N114" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O114" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P114" t="s">
+        <v>35</v>
       </c>
       <c r="Q114" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>418</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -8654,22 +8678,22 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D116" t="s">
-        <v>350</v>
-      </c>
-      <c r="E116" t="s">
-        <v>422</v>
-      </c>
       <c r="F116" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>33</v>
@@ -8678,160 +8702,154 @@
         <v>21</v>
       </c>
       <c r="I116" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M116" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" t="s">
+        <v>421</v>
+      </c>
+      <c r="O116" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="9">
+        <v>124</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L117" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M117" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" t="s">
+        <v>423</v>
+      </c>
+      <c r="O117" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="9">
+        <v>125</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" t="s">
+        <v>354</v>
+      </c>
+      <c r="E118" t="s">
+        <v>426</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J118" t="s">
         <v>23</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K118" t="s">
         <v>24</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L118" t="s">
         <v>25</v>
       </c>
-      <c r="M116" t="s">
-        <v>26</v>
-      </c>
-      <c r="N116" t="s">
-        <v>423</v>
-      </c>
-      <c r="O116" t="s">
+      <c r="M118" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" t="s">
+        <v>427</v>
+      </c>
+      <c r="O118" t="s">
         <v>28</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P118" t="s">
         <v>29</v>
       </c>
-      <c r="Q116" t="s">
+      <c r="Q118" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="117" s="2" customFormat="1" spans="1:17">
-      <c r="A117" s="10">
-        <v>126</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L117" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M117" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="1" spans="1:17">
-      <c r="A118" s="10">
-        <v>127</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L118" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M118" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:17">
       <c r="A119" s="10">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>430</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>21</v>
@@ -8864,115 +8882,115 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
-      <c r="A120" s="9">
+    <row r="120" s="2" customFormat="1" spans="1:17">
+      <c r="A120" s="10">
+        <v>127</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L120" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M120" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:17">
+      <c r="A121" s="10">
+        <v>128</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L121" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M121" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="9">
         <v>129</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D120" t="s">
-        <v>350</v>
-      </c>
-      <c r="E120" t="s">
-        <v>434</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" t="s">
-        <v>23</v>
-      </c>
-      <c r="K120" t="s">
-        <v>24</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M120" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" t="s">
-        <v>435</v>
-      </c>
-      <c r="O120" t="s">
-        <v>28</v>
-      </c>
-      <c r="P120" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="A121" s="9">
-        <v>130</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D121" t="s">
-        <v>350</v>
-      </c>
-      <c r="E121" t="s">
-        <v>438</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s">
-        <v>21</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121" t="s">
-        <v>24</v>
-      </c>
-      <c r="L121" t="s">
-        <v>25</v>
-      </c>
-      <c r="M121" t="s">
-        <v>26</v>
-      </c>
-      <c r="N121" t="s">
-        <v>439</v>
-      </c>
-      <c r="O121" t="s">
-        <v>28</v>
-      </c>
-      <c r="P121" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:17">
-      <c r="A122" s="9">
-        <v>131</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>436</v>
@@ -8981,16 +8999,16 @@
         <v>437</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>440</v>
+        <v>354</v>
+      </c>
+      <c r="E122" t="s">
+        <v>438</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
@@ -9004,43 +9022,43 @@
       <c r="K122" t="s">
         <v>24</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N122" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O122" t="s">
         <v>28</v>
       </c>
       <c r="P122" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q122" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" spans="1:17">
+    <row r="123" spans="1:17">
       <c r="A123" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D123" t="s">
+        <v>354</v>
+      </c>
+      <c r="E123" t="s">
         <v>442</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>444</v>
-      </c>
       <c r="F123" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>33</v>
@@ -9057,14 +9075,14 @@
       <c r="K123" t="s">
         <v>24</v>
       </c>
-      <c r="L123" s="14" t="s">
+      <c r="L123" t="s">
         <v>25</v>
       </c>
-      <c r="M123" s="14" t="s">
+      <c r="M123" t="s">
         <v>26</v>
       </c>
       <c r="N123" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O123" t="s">
         <v>28</v>
@@ -9073,24 +9091,24 @@
         <v>35</v>
       </c>
       <c r="Q123" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:17">
       <c r="A124" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="D124" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>62</v>
@@ -9110,14 +9128,14 @@
       <c r="K124" t="s">
         <v>24</v>
       </c>
-      <c r="L124" s="14" t="s">
+      <c r="L124" t="s">
         <v>25</v>
       </c>
-      <c r="M124" s="14" t="s">
+      <c r="M124" t="s">
         <v>26</v>
       </c>
       <c r="N124" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O124" t="s">
         <v>28</v>
@@ -9126,27 +9144,27 @@
         <v>35</v>
       </c>
       <c r="Q124" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:17">
       <c r="A125" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E125" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="F125" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>33</v>
@@ -9155,97 +9173,101 @@
         <v>21</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L125" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M125" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N125" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O125" t="s">
-        <v>65</v>
-      </c>
-      <c r="P125"/>
+        <v>28</v>
+      </c>
+      <c r="P125" t="s">
+        <v>35</v>
+      </c>
       <c r="Q125" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:17">
       <c r="A126" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D126" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="F126" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H126" t="s">
         <v>21</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L126" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M126" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" t="s">
+        <v>24</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="14" t="s">
         <v>26</v>
       </c>
       <c r="N126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O126" t="s">
-        <v>65</v>
-      </c>
-      <c r="P126"/>
+        <v>28</v>
+      </c>
+      <c r="P126" t="s">
+        <v>35</v>
+      </c>
       <c r="Q126" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:17">
       <c r="A127" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E127" t="s">
-        <v>457</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>52</v>
@@ -9257,47 +9279,49 @@
         <v>21</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>458</v>
+        <v>41</v>
+      </c>
+      <c r="L127" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="M127" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N127" s="1" t="s">
-        <v>459</v>
+      <c r="N127" t="s">
+        <v>456</v>
       </c>
       <c r="O127" t="s">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="P127"/>
-      <c r="Q127"/>
+      <c r="Q127" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:17">
       <c r="A128" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>463</v>
+        <v>452</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>33</v>
@@ -9321,34 +9345,34 @@
         <v>26</v>
       </c>
       <c r="N128" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O128" t="s">
         <v>65</v>
       </c>
       <c r="P128"/>
       <c r="Q128" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:17">
       <c r="A129" s="9">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E129" t="s">
         <v>461</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="F129" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>33</v>
@@ -9357,51 +9381,50 @@
         <v>21</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L129" s="15" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="M129" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N129" t="s">
+      <c r="N129" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O129" t="s">
+        <v>464</v>
+      </c>
+      <c r="P129"/>
+      <c r="Q129"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:17">
+      <c r="A130" s="9">
+        <v>139</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D130" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="O129" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="A130" s="9">
-        <v>141</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="4" t="s">
         <v>468</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H130" t="s">
         <v>21</v>
@@ -9427,28 +9450,29 @@
       <c r="O130" t="s">
         <v>65</v>
       </c>
+      <c r="P130"/>
       <c r="Q130" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>472</v>
-      </c>
       <c r="F131" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>33</v>
@@ -9472,7 +9496,7 @@
         <v>26</v>
       </c>
       <c r="N131" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O131" t="s">
         <v>65</v>
@@ -9483,25 +9507,25 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H132" t="s">
         <v>21</v>
@@ -9522,7 +9546,7 @@
         <v>26</v>
       </c>
       <c r="N132" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O132" t="s">
         <v>65</v>
@@ -9533,25 +9557,25 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>476</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H133" t="s">
         <v>21</v>
@@ -9583,22 +9607,22 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="F134" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>33</v>
@@ -9622,36 +9646,36 @@
         <v>26</v>
       </c>
       <c r="N134" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O134" t="s">
         <v>65</v>
       </c>
       <c r="Q134" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>463</v>
+        <v>475</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H135" t="s">
         <v>21</v>
@@ -9672,30 +9696,30 @@
         <v>26</v>
       </c>
       <c r="N135" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O135" t="s">
         <v>65</v>
       </c>
       <c r="Q135" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>52</v>
@@ -9722,30 +9746,30 @@
         <v>26</v>
       </c>
       <c r="N136" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O136" t="s">
         <v>65</v>
       </c>
       <c r="Q136" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>463</v>
+        <v>482</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>73</v>
@@ -9772,30 +9796,30 @@
         <v>26</v>
       </c>
       <c r="N137" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O137" t="s">
         <v>65</v>
       </c>
       <c r="Q137" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="9">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>52</v>
@@ -9822,30 +9846,30 @@
         <v>26</v>
       </c>
       <c r="N138" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O138" t="s">
         <v>65</v>
       </c>
       <c r="Q138" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="9">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>73</v>
@@ -9872,30 +9896,30 @@
         <v>26</v>
       </c>
       <c r="N139" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O139" t="s">
         <v>65</v>
       </c>
       <c r="Q139" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>52</v>
@@ -9922,30 +9946,30 @@
         <v>26</v>
       </c>
       <c r="N140" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O140" t="s">
         <v>65</v>
       </c>
       <c r="Q140" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>73</v>
@@ -9972,30 +9996,30 @@
         <v>26</v>
       </c>
       <c r="N141" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O141" t="s">
         <v>65</v>
       </c>
       <c r="Q141" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>52</v>
@@ -10022,7 +10046,7 @@
         <v>26</v>
       </c>
       <c r="N142" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O142" t="s">
         <v>65</v>
@@ -10033,19 +10057,19 @@
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>73</v>
@@ -10072,7 +10096,7 @@
         <v>26</v>
       </c>
       <c r="N143" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O143" t="s">
         <v>65</v>
@@ -10083,131 +10107,125 @@
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="9">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="F144" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L144" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M144" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N144" t="s">
         <v>509</v>
       </c>
-      <c r="D144" t="s">
-        <v>510</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H144" t="s">
-        <v>21</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" t="s">
-        <v>23</v>
-      </c>
-      <c r="K144" t="s">
-        <v>24</v>
-      </c>
-      <c r="L144" t="s">
-        <v>25</v>
-      </c>
-      <c r="M144" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N144" t="s">
-        <v>512</v>
-      </c>
       <c r="O144" t="s">
-        <v>28</v>
-      </c>
-      <c r="P144" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q144" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="9">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D145" t="s">
+        <v>507</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="F145" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H145" t="s">
         <v>21</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J145" t="s">
-        <v>23</v>
-      </c>
-      <c r="K145" t="s">
-        <v>24</v>
-      </c>
-      <c r="L145" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L145" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="M145" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N145" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O145" t="s">
-        <v>28</v>
-      </c>
-      <c r="P145" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q145" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D146" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>515</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H146" t="s">
         <v>21</v>
@@ -10242,25 +10260,25 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D147" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>517</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H147" t="s">
         <v>21</v>
@@ -10295,49 +10313,52 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D148" t="s">
+        <v>514</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="F148" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" t="s">
+        <v>23</v>
+      </c>
+      <c r="K148" t="s">
+        <v>24</v>
+      </c>
+      <c r="L148" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N148" t="s">
         <v>520</v>
       </c>
-      <c r="D148" t="s">
-        <v>510</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H148" t="s">
-        <v>21</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L148" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M148" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N148" t="s">
-        <v>522</v>
-      </c>
       <c r="O148" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P148" t="s">
+        <v>29</v>
       </c>
       <c r="Q148" t="s">
         <v>105</v>
@@ -10345,22 +10366,22 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D149" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>33</v>
@@ -10369,25 +10390,28 @@
         <v>21</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L149" s="15" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="J149" t="s">
+        <v>23</v>
+      </c>
+      <c r="K149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" t="s">
+        <v>25</v>
       </c>
       <c r="M149" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N149" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O149" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P149" t="s">
+        <v>29</v>
       </c>
       <c r="Q149" t="s">
         <v>105</v>
@@ -10395,22 +10419,22 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D150" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>63</v>
@@ -10445,19 +10469,19 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="9">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D151" t="s">
+        <v>514</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>52</v>
@@ -10469,28 +10493,25 @@
         <v>21</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J151" t="s">
-        <v>23</v>
-      </c>
-      <c r="K151" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L151" s="15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M151" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N151" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O151" t="s">
-        <v>28</v>
-      </c>
-      <c r="P151" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q151" t="s">
         <v>105</v>
@@ -10498,52 +10519,49 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D152" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D152" t="s">
+        <v>514</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E152" s="14" t="s">
-        <v>532</v>
-      </c>
       <c r="F152" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H152" t="s">
         <v>21</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J152" t="s">
-        <v>23</v>
-      </c>
-      <c r="K152" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L152" s="15" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M152" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N152" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O152" t="s">
-        <v>28</v>
-      </c>
-      <c r="P152" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q152" t="s">
         <v>105</v>
@@ -10551,25 +10569,25 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E153" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>534</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H153" t="s">
         <v>21</v>
@@ -10604,49 +10622,52 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E154" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="F154" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" t="s">
+        <v>21</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" t="s">
+        <v>23</v>
+      </c>
+      <c r="K154" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N154" t="s">
         <v>537</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H154" t="s">
-        <v>21</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L154" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M154" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N154" t="s">
-        <v>539</v>
-      </c>
       <c r="O154" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P154" t="s">
+        <v>29</v>
       </c>
       <c r="Q154" t="s">
         <v>105</v>
@@ -10654,49 +10675,52 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>540</v>
+        <v>533</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>538</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G155" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G155" s="14" t="s">
         <v>63</v>
       </c>
       <c r="H155" t="s">
         <v>21</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="J155" t="s">
+        <v>23</v>
+      </c>
+      <c r="K155" t="s">
+        <v>24</v>
       </c>
       <c r="L155" s="15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M155" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N155" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O155" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P155" t="s">
+        <v>29</v>
       </c>
       <c r="Q155" t="s">
         <v>105</v>
@@ -10704,22 +10728,22 @@
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>542</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>33</v>
@@ -10754,22 +10778,22 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>529</v>
+        <v>540</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>544</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>63</v>
@@ -10804,19 +10828,22 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="9">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D158" t="s">
-        <v>547</v>
-      </c>
-      <c r="E158" t="s">
-        <v>548</v>
-      </c>
       <c r="F158" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>33</v>
@@ -10825,98 +10852,95 @@
         <v>21</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J158" t="s">
-        <v>23</v>
-      </c>
-      <c r="K158" t="s">
-        <v>24</v>
-      </c>
-      <c r="L158" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L158" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="M158" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N158" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O158" t="s">
-        <v>28</v>
-      </c>
-      <c r="P158" t="s">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="Q158" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="9">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D159" t="s">
-        <v>547</v>
-      </c>
-      <c r="E159" t="s">
-        <v>551</v>
+        <v>540</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H159" t="s">
         <v>21</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J159" t="s">
-        <v>23</v>
-      </c>
-      <c r="K159" t="s">
-        <v>24</v>
-      </c>
-      <c r="L159" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L159" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="M159" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N159" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O159" t="s">
-        <v>28</v>
-      </c>
-      <c r="P159" t="s">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="Q159" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D160" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E160" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>554</v>
+        <v>52</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>33</v>
@@ -10940,13 +10964,13 @@
         <v>26</v>
       </c>
       <c r="N160" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O160" t="s">
         <v>28</v>
       </c>
       <c r="P160" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q160" t="s">
         <v>49</v>
@@ -10954,22 +10978,22 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D161" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E161" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H161" t="s">
         <v>21</v>
@@ -10990,13 +11014,13 @@
         <v>26</v>
       </c>
       <c r="N161" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O161" t="s">
         <v>28</v>
       </c>
       <c r="P161" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q161" t="s">
         <v>49</v>
@@ -11004,19 +11028,19 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D162" t="s">
+        <v>551</v>
+      </c>
+      <c r="E162" t="s">
+        <v>557</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="D162" t="s">
-        <v>547</v>
-      </c>
-      <c r="E162" t="s">
-        <v>559</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>33</v>
@@ -11025,25 +11049,28 @@
         <v>21</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="J162" t="s">
+        <v>23</v>
+      </c>
+      <c r="K162" t="s">
+        <v>24</v>
       </c>
       <c r="L162" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M162" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N162" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O162" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P162" t="s">
+        <v>554</v>
       </c>
       <c r="Q162" t="s">
         <v>49</v>
@@ -11051,19 +11078,19 @@
     </row>
     <row r="163" spans="1:17">
       <c r="A163" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D163" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E163" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>63</v>
@@ -11072,25 +11099,28 @@
         <v>21</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="J163" t="s">
+        <v>23</v>
+      </c>
+      <c r="K163" t="s">
+        <v>24</v>
       </c>
       <c r="L163" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M163" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N163" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O163" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="P163" t="s">
+        <v>554</v>
       </c>
       <c r="Q163" t="s">
         <v>49</v>
@@ -11098,19 +11128,19 @@
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D164" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E164" t="s">
         <v>563</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>33</v>
@@ -11145,19 +11175,19 @@
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D165" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E165" t="s">
         <v>565</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>63</v>
@@ -11192,19 +11222,19 @@
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D166" t="s">
+        <v>551</v>
+      </c>
+      <c r="E166" t="s">
         <v>567</v>
       </c>
-      <c r="D166" t="s">
-        <v>547</v>
-      </c>
-      <c r="E166" t="s">
-        <v>568</v>
-      </c>
       <c r="F166" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>33</v>
@@ -11213,28 +11243,25 @@
         <v>21</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J166" t="s">
-        <v>23</v>
-      </c>
-      <c r="K166" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L166" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M166" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N166" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O166" t="s">
-        <v>28</v>
-      </c>
-      <c r="P166" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q166" t="s">
         <v>49</v>
@@ -11242,63 +11269,152 @@
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="9">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D167" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E167" t="s">
+        <v>569</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H167" t="s">
+        <v>21</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L167" t="s">
+        <v>42</v>
+      </c>
+      <c r="M167" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N167" t="s">
         <v>570</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H167" t="s">
-        <v>21</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J167" t="s">
-        <v>23</v>
-      </c>
-      <c r="K167" t="s">
-        <v>24</v>
-      </c>
-      <c r="L167" t="s">
-        <v>25</v>
-      </c>
-      <c r="M167" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N167" t="s">
-        <v>572</v>
-      </c>
       <c r="O167" t="s">
-        <v>28</v>
-      </c>
-      <c r="P167" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Q167" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="9">
+        <v>189</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D168" t="s">
+        <v>551</v>
+      </c>
+      <c r="E168" t="s">
+        <v>572</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J168" t="s">
+        <v>23</v>
+      </c>
+      <c r="K168" t="s">
+        <v>24</v>
+      </c>
+      <c r="L168" t="s">
+        <v>25</v>
+      </c>
+      <c r="M168" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N168" t="s">
+        <v>573</v>
+      </c>
+      <c r="O168" t="s">
+        <v>28</v>
+      </c>
+      <c r="P168" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="9">
+        <v>190</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" t="s">
+        <v>551</v>
+      </c>
+      <c r="E169" t="s">
+        <v>574</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" t="s">
+        <v>21</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" t="s">
+        <v>23</v>
+      </c>
+      <c r="K169" t="s">
+        <v>24</v>
+      </c>
+      <c r="L169" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N169" t="s">
+        <v>576</v>
+      </c>
+      <c r="O169" t="s">
+        <v>28</v>
+      </c>
+      <c r="P169" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q167">
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="equal" val="Yes"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
